--- a/document/01.参考資料/要求定義書参考.xlsx
+++ b/document/01.参考資料/要求定義書参考.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>だい</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>情報システムの分類と要求定義レベル</t>
-  </si>
-  <si>
-    <t>＠8888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８８いいい８い「ơ</t>
   </si>
 </sst>
 </file>
@@ -1610,36 +1607,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S26"/>
+  <dimension ref="B3:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="S6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="22" t="s">
         <v>27</v>
       </c>
@@ -1661,7 +1653,7 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D8" s="22" t="s">
         <v>28</v>
       </c>
@@ -1683,7 +1675,7 @@
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D9" s="22" t="s">
         <v>29</v>
       </c>
@@ -1705,7 +1697,7 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D10" s="22" t="s">
         <v>30</v>
       </c>
@@ -1727,7 +1719,7 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D11" s="22" t="s">
         <v>31</v>
       </c>
@@ -1749,7 +1741,7 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -1769,7 +1761,7 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -1789,7 +1781,7 @@
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="2:19" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>26</v>
       </c>
@@ -1812,7 +1804,7 @@
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -1828,7 +1820,7 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
